--- a/WIP/files/Q13.xlsx
+++ b/WIP/files/Q13.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EEA605-D394-4F3B-B8DB-06F8EB78AD3F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BD6197-7355-439A-9157-EB7BA983EACF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,8 +537,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">

--- a/WIP/files/Q13.xlsx
+++ b/WIP/files/Q13.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BD6197-7355-439A-9157-EB7BA983EACF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A07269-1543-433E-91D3-84ACDFE954C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
   <si>
     <t>Micaiah</t>
   </si>
@@ -166,21 +166,6 @@
     <t>Mareshah</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>Dan</t>
   </si>
   <si>
@@ -212,6 +197,66 @@
   </si>
   <si>
     <t>Ananiah</t>
+  </si>
+  <si>
+    <t>Xofroirhiel</t>
+  </si>
+  <si>
+    <t>Labruynga</t>
+  </si>
+  <si>
+    <t>Jethye</t>
+  </si>
+  <si>
+    <t>Qethana</t>
+  </si>
+  <si>
+    <t>Troilia</t>
+  </si>
+  <si>
+    <t>Smuera</t>
+  </si>
+  <si>
+    <t>Aprana</t>
+  </si>
+  <si>
+    <t>Udros</t>
+  </si>
+  <si>
+    <t>Gloux Clar</t>
+  </si>
+  <si>
+    <t>Bref Trea</t>
+  </si>
+  <si>
+    <t>Tusnoyce</t>
+  </si>
+  <si>
+    <t>Iaproece</t>
+  </si>
+  <si>
+    <t>Yestines</t>
+  </si>
+  <si>
+    <t>Uthesh</t>
+  </si>
+  <si>
+    <t>Stautho</t>
+  </si>
+  <si>
+    <t>Glietho</t>
+  </si>
+  <si>
+    <t>Osten</t>
+  </si>
+  <si>
+    <t>Afria</t>
+  </si>
+  <si>
+    <t>Shoyd Sneau</t>
+  </si>
+  <si>
+    <t>Scuis Stal</t>
   </si>
 </sst>
 </file>
@@ -532,7 +577,7 @@
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +591,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -554,7 +599,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -562,15 +607,15 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -578,7 +623,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -586,15 +631,15 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -602,15 +647,15 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -618,7 +663,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -626,7 +671,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -634,7 +679,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -642,7 +687,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -650,7 +695,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -658,7 +703,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -666,15 +711,15 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -682,7 +727,7 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -690,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -698,7 +743,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -706,7 +751,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -714,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -722,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -730,7 +775,7 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -738,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -746,7 +791,7 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -754,7 +799,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -762,7 +807,7 @@
         <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -770,7 +815,7 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -778,7 +823,7 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -786,7 +831,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -794,7 +839,7 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -802,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -810,7 +855,7 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -818,31 +863,31 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -850,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -858,7 +903,7 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -866,7 +911,7 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -874,7 +919,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -882,15 +927,15 @@
         <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -898,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -906,23 +951,23 @@
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -930,7 +975,7 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -938,7 +983,7 @@
         <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -946,7 +991,7 @@
         <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -954,7 +999,7 @@
         <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -962,7 +1007,7 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -970,7 +1015,7 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -978,7 +1023,7 @@
         <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -986,15 +1031,15 @@
         <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1002,7 +1047,7 @@
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1010,7 +1055,7 @@
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1018,12 +1063,12 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:B60">
-    <sortCondition ref="A41"/>
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WIP/files/Q13.xlsx
+++ b/WIP/files/Q13.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A07269-1543-433E-91D3-84ACDFE954C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83955508-E73B-4A07-AD47-C68122EA9B3A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
